--- a/dataExcel/【MAC-10 _ 玩具盒子 (久经沙场)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【MAC-10 _ 玩具盒子 (久经沙场)】悠悠有品近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I264"/>
+  <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,251 +431,251 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 06:05:20</v>
+        <v>2023-09-19 11:23:59</v>
       </c>
       <c r="B8">
-        <v>24.38</v>
+        <v>23.81</v>
       </c>
       <c r="C8">
-        <v>28.79</v>
+        <v>25.22</v>
       </c>
       <c r="D8">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F8">
         <v>0.03</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>20.7</v>
+        <v>21.3</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 10:01:33</v>
+        <v>2023-09-19 15:01:49</v>
       </c>
       <c r="B9">
-        <v>24.37</v>
+        <v>23.71</v>
       </c>
       <c r="C9">
-        <v>28.79</v>
+        <v>25.22</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
         <v>0.03</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 13:40:35</v>
+        <v>2023-09-19 18:45:29</v>
       </c>
       <c r="B10">
-        <v>24.37</v>
+        <v>23.71</v>
       </c>
       <c r="C10">
-        <v>28.79</v>
+        <v>25.22</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F10">
         <v>0.03</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 17:39:25</v>
+        <v>2023-09-19 22:23:59</v>
       </c>
       <c r="B11">
-        <v>24.27</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>28.79</v>
+        <v>25.22</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E11">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
         <v>0.03</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>20.6</v>
+        <v>21.1</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 21:17:09</v>
+        <v>2023-09-20 02:02:02</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>23.81</v>
       </c>
       <c r="C12">
-        <v>28.79</v>
+        <v>25.22</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E12">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F12">
         <v>0.03</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 00:59:49</v>
+        <v>2023-09-20 05:38:01</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="C13">
-        <v>28.79</v>
+        <v>27.17</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E13">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F13">
         <v>0.03</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 04:36:07</v>
+        <v>2023-09-20 09:15:45</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="C14">
-        <v>25.16</v>
+        <v>27.17</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E14">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F14">
         <v>0.03</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 08:13:22</v>
+        <v>2023-09-20 12:54:32</v>
       </c>
       <c r="B15">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="C15">
-        <v>25.16</v>
+        <v>27.17</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="E15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F15">
         <v>0.03</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 11:59:07</v>
+        <v>2023-09-20 16:30:50</v>
       </c>
       <c r="B16">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="C16">
-        <v>25.16</v>
+        <v>27.17</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F16">
         <v>0.03</v>
@@ -684,56 +684,56 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 15:35:52</v>
+        <v>2023-09-20 20:12:43</v>
       </c>
       <c r="B17">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="C17">
-        <v>25.16</v>
+        <v>27.17</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E17">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F17">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 19:13:53</v>
+        <v>2023-09-20 23:52:27</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C18">
-        <v>25.16</v>
+        <v>27.17</v>
       </c>
       <c r="D18">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F18">
         <v>0.03</v>
@@ -742,53 +742,53 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>20.3</v>
+        <v>21.3</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 22:53:41</v>
+        <v>2023-09-21 03:34:36</v>
       </c>
       <c r="B19">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>25.16</v>
+        <v>28.21</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
         <v>0.03</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 02:30:44</v>
+        <v>2023-09-21 07:09:47</v>
       </c>
       <c r="B20">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C20">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0.03</v>
@@ -797,27 +797,27 @@
         <v>0.03</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H20">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 06:13:37</v>
+        <v>2023-09-21 10:46:43</v>
       </c>
       <c r="B21">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21">
         <v>0.03</v>
@@ -829,24 +829,24 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>20.7</v>
+        <v>21.4</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 09:53:52</v>
+        <v>2023-09-21 14:24:00</v>
       </c>
       <c r="B22">
         <v>23.8</v>
       </c>
       <c r="C22">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D22">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0.03</v>
@@ -858,24 +858,24 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 13:33:10</v>
+        <v>2023-09-21 18:00:48</v>
       </c>
       <c r="B23">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="C23">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D23">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>0.03</v>
@@ -887,24 +887,24 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 17:08:34</v>
+        <v>2023-09-21 21:39:07</v>
       </c>
       <c r="B24">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="C24">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D24">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0.03</v>
@@ -913,27 +913,27 @@
         <v>0.03</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 20:44:51</v>
+        <v>2023-09-22 01:17:07</v>
       </c>
       <c r="B25">
         <v>23.9</v>
       </c>
       <c r="C25">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0.03</v>
@@ -945,24 +945,24 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 20:50:49</v>
+        <v>2023-09-22 01:23:49</v>
       </c>
       <c r="B26">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="C26">
-        <v>27.89</v>
+        <v>28.21</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0.03</v>
@@ -974,24 +974,24 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="I26">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 00:32:33</v>
+        <v>2023-09-22 05:04:19</v>
       </c>
       <c r="B27">
-        <v>23.81</v>
+        <v>23.8</v>
       </c>
       <c r="C27">
-        <v>27.89</v>
+        <v>25.74</v>
       </c>
       <c r="D27">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0.03</v>
@@ -1003,24 +1003,24 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="I27">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 04:07:27</v>
+        <v>2023-09-22 08:45:03</v>
       </c>
       <c r="B28">
-        <v>23.81</v>
+        <v>23.8</v>
       </c>
       <c r="C28">
-        <v>25.22</v>
+        <v>25.74</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>0.03</v>
@@ -1029,27 +1029,27 @@
         <v>0.03</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 07:43:04</v>
+        <v>2023-09-22 12:24:52</v>
       </c>
       <c r="B29">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="C29">
-        <v>25.22</v>
+        <v>25.74</v>
       </c>
       <c r="D29">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E29">
         <v>0.03</v>
@@ -1058,27 +1058,27 @@
         <v>0.03</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 11:23:59</v>
+        <v>2023-09-22 16:04:01</v>
       </c>
       <c r="B30">
-        <v>23.81</v>
+        <v>23</v>
       </c>
       <c r="C30">
-        <v>25.22</v>
+        <v>25.74</v>
       </c>
       <c r="D30">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>0.03</v>
@@ -1087,68 +1087,68 @@
         <v>0.03</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30">
-        <v>21.3</v>
+        <v>21.7</v>
       </c>
       <c r="I30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 15:01:49</v>
+        <v>2023-09-22 19:39:50</v>
       </c>
       <c r="B31">
-        <v>23.71</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>25.22</v>
+        <v>25.74</v>
       </c>
       <c r="D31">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="I31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 18:45:29</v>
+        <v>2023-09-22 23:18:02</v>
       </c>
       <c r="B32">
-        <v>23.71</v>
+        <v>22.69</v>
       </c>
       <c r="C32">
-        <v>25.22</v>
+        <v>25.74</v>
       </c>
       <c r="D32">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="I32">
         <v>12</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 22:23:59</v>
+        <v>2023-09-23 02:56:17</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>22.69</v>
       </c>
       <c r="C33">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D33">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>0.03</v>
@@ -1177,24 +1177,24 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 02:02:02</v>
+        <v>2023-09-23 06:33:44</v>
       </c>
       <c r="B34">
-        <v>23.81</v>
+        <v>22.69</v>
       </c>
       <c r="C34">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D34">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34">
         <v>0.03</v>
@@ -1206,24 +1206,24 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="I34">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 05:38:01</v>
+        <v>2023-09-23 10:10:27</v>
       </c>
       <c r="B35">
-        <v>23.9</v>
+        <v>22.6</v>
       </c>
       <c r="C35">
-        <v>27.17</v>
+        <v>26.13</v>
       </c>
       <c r="D35">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E35">
         <v>0.03</v>
@@ -1232,27 +1232,27 @@
         <v>0.03</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H35">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="I35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 09:15:45</v>
+        <v>2023-09-23 13:47:36</v>
       </c>
       <c r="B36">
-        <v>23.8</v>
+        <v>22.69</v>
       </c>
       <c r="C36">
-        <v>27.17</v>
+        <v>26.13</v>
       </c>
       <c r="D36">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>0.03</v>
@@ -1261,27 +1261,27 @@
         <v>0.03</v>
       </c>
       <c r="G36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>21.1</v>
+        <v>21.7</v>
       </c>
       <c r="I36">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 12:54:32</v>
+        <v>2023-09-23 17:28:21</v>
       </c>
       <c r="B37">
-        <v>23.8</v>
+        <v>22.59</v>
       </c>
       <c r="C37">
-        <v>27.17</v>
+        <v>26.13</v>
       </c>
       <c r="D37">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>0.03</v>
@@ -1290,27 +1290,27 @@
         <v>0.03</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="I37">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 16:30:50</v>
+        <v>2023-09-23 21:08:28</v>
       </c>
       <c r="B38">
-        <v>23.8</v>
+        <v>22.59</v>
       </c>
       <c r="C38">
-        <v>27.17</v>
+        <v>26.13</v>
       </c>
       <c r="D38">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>0.03</v>
@@ -1319,39 +1319,39 @@
         <v>0.03</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="I38">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 20:12:43</v>
+        <v>2023-09-24 00:46:08</v>
       </c>
       <c r="B39">
-        <v>23.6</v>
+        <v>22.59</v>
       </c>
       <c r="C39">
-        <v>27.17</v>
+        <v>26.13</v>
       </c>
       <c r="D39">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="I39">
         <v>13</v>
@@ -1359,77 +1359,77 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 23:52:27</v>
+        <v>2023-09-24 04:26:36</v>
       </c>
       <c r="B40">
-        <v>23.7</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>27.17</v>
+        <v>27.3</v>
       </c>
       <c r="D40">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
         <v>0.03</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-21 03:34:36</v>
+        <v>2023-09-24 08:04:05</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D41">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F41">
         <v>0.03</v>
       </c>
       <c r="G41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H41">
         <v>21.4</v>
       </c>
       <c r="I41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 07:09:47</v>
+        <v>2023-09-24 11:42:43</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="C42">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D42">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F42">
         <v>0.03</v>
@@ -1441,24 +1441,24 @@
         <v>21.4</v>
       </c>
       <c r="I42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 10:46:43</v>
+        <v>2023-09-24 15:20:40</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="C43">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D43">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F43">
         <v>0.03</v>
@@ -1470,91 +1470,91 @@
         <v>21.4</v>
       </c>
       <c r="I43">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 14:24:00</v>
+        <v>2023-09-24 19:01:06</v>
       </c>
       <c r="B44">
-        <v>23.8</v>
+        <v>23.78</v>
       </c>
       <c r="C44">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D44">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
         <v>0.03</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>21.4</v>
       </c>
       <c r="I44">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 18:00:48</v>
+        <v>2023-09-24 22:39:44</v>
       </c>
       <c r="B45">
-        <v>23.7</v>
+        <v>23.67</v>
       </c>
       <c r="C45">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D45">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
         <v>0.03</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H45">
         <v>21.4</v>
       </c>
       <c r="I45">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 21:39:07</v>
+        <v>2023-09-25 02:19:02</v>
       </c>
       <c r="B46">
-        <v>23.7</v>
+        <v>23.99</v>
       </c>
       <c r="C46">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D46">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
         <v>0.03</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="I46">
         <v>13</v>
@@ -1562,289 +1562,289 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-22 01:17:07</v>
+        <v>2023-09-25 05:59:58</v>
       </c>
       <c r="B47">
-        <v>23.9</v>
+        <v>23.99</v>
       </c>
       <c r="C47">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D47">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E47">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F47">
         <v>0.03</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H47">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="I47">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-22 01:23:49</v>
+        <v>2023-09-25 09:35:43</v>
       </c>
       <c r="B48">
-        <v>23.9</v>
+        <v>22.69</v>
       </c>
       <c r="C48">
-        <v>28.21</v>
+        <v>27.3</v>
       </c>
       <c r="D48">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
         <v>0.03</v>
       </c>
       <c r="G48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H48">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="I48">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-22 05:04:19</v>
+        <v>2023-09-25 13:17:12</v>
       </c>
       <c r="B49">
-        <v>23.8</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D49">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
         <v>0.03</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="I49">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-22 08:45:03</v>
+        <v>2023-09-25 16:56:38</v>
       </c>
       <c r="B50">
-        <v>23.8</v>
+        <v>21.8</v>
       </c>
       <c r="C50">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D50">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
         <v>0.03</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="I50">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-22 12:24:52</v>
+        <v>2023-09-25 20:34:33</v>
       </c>
       <c r="B51">
-        <v>23.1</v>
+        <v>22</v>
       </c>
       <c r="C51">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D51">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F51">
         <v>0.03</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="I51">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-22 16:04:01</v>
+        <v>2023-09-26 00:11:50</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D52">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E52">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
         <v>0.03</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-22 19:39:50</v>
+        <v>2023-09-26 03:48:42</v>
       </c>
       <c r="B53">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D53">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F53">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>21.5</v>
+      </c>
+      <c r="I53">
         <v>10</v>
-      </c>
-      <c r="H53">
-        <v>21.7</v>
-      </c>
-      <c r="I53">
-        <v>12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-22 23:18:02</v>
+        <v>2023-09-26 07:28:04</v>
       </c>
       <c r="B54">
-        <v>22.69</v>
+        <v>24</v>
       </c>
       <c r="C54">
-        <v>25.74</v>
+        <v>27.3</v>
       </c>
       <c r="D54">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E54">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F54">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>21.5</v>
+      </c>
+      <c r="I54">
         <v>9</v>
-      </c>
-      <c r="H54">
-        <v>21.7</v>
-      </c>
-      <c r="I54">
-        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 02:56:17</v>
+        <v>2023-09-26 11:09:16</v>
       </c>
       <c r="B55">
-        <v>22.69</v>
+        <v>24</v>
       </c>
       <c r="C55">
-        <v>26.13</v>
+        <v>27.3</v>
       </c>
       <c r="D55">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F55">
         <v>0.03</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="I55">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-23 06:33:44</v>
+        <v>2023-09-26 14:48:07</v>
       </c>
       <c r="B56">
-        <v>22.69</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>26.13</v>
+        <v>27.3</v>
       </c>
       <c r="D56">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E56">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
         <v>0.03</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H56">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="I56">
         <v>12</v>
@@ -1852,132 +1852,132 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-23 10:10:27</v>
+        <v>2023-09-26 18:27:30</v>
       </c>
       <c r="B57">
-        <v>22.6</v>
+        <v>23.99</v>
       </c>
       <c r="C57">
-        <v>26.13</v>
+        <v>27.3</v>
       </c>
       <c r="D57">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F57">
         <v>0.03</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-23 13:47:36</v>
+        <v>2023-09-26 22:04:29</v>
       </c>
       <c r="B58">
-        <v>22.69</v>
+        <v>23.99</v>
       </c>
       <c r="C58">
-        <v>26.13</v>
+        <v>27.3</v>
       </c>
       <c r="D58">
         <v>63</v>
       </c>
       <c r="E58">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F58">
         <v>0.03</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-23 17:28:21</v>
+        <v>2023-09-27 01:41:15</v>
       </c>
       <c r="B59">
-        <v>22.59</v>
+        <v>23.99</v>
       </c>
       <c r="C59">
-        <v>26.13</v>
+        <v>27.3</v>
       </c>
       <c r="D59">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E59">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F59">
         <v>0.03</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="I59">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-23 21:08:28</v>
+        <v>2023-09-27 05:21:12</v>
       </c>
       <c r="B60">
-        <v>22.59</v>
+        <v>23.99</v>
       </c>
       <c r="C60">
-        <v>26.13</v>
+        <v>27.24</v>
       </c>
       <c r="D60">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F60">
         <v>0.03</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="I60">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 00:46:08</v>
+        <v>2023-09-27 09:00:29</v>
       </c>
       <c r="B61">
-        <v>22.59</v>
+        <v>23.99</v>
       </c>
       <c r="C61">
-        <v>26.13</v>
+        <v>27.24</v>
       </c>
       <c r="D61">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E61">
         <v>0.04</v>
@@ -1986,27 +1986,27 @@
         <v>0.03</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="I61">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 04:26:36</v>
+        <v>2023-09-27 12:40:00</v>
       </c>
       <c r="B62">
-        <v>23</v>
+        <v>23.98</v>
       </c>
       <c r="C62">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D62">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E62">
         <v>0.04</v>
@@ -2015,27 +2015,27 @@
         <v>0.03</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I62">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-24 08:04:05</v>
+        <v>2023-09-27 13:35:02</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>23.98</v>
       </c>
       <c r="C63">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D63">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E63">
         <v>0.04</v>
@@ -2044,27 +2044,27 @@
         <v>0.03</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-24 11:42:43</v>
+        <v>2023-09-27 14:40:25</v>
       </c>
       <c r="B64">
-        <v>22.5</v>
+        <v>23.98</v>
       </c>
       <c r="C64">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D64">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E64">
         <v>0.04</v>
@@ -2073,27 +2073,27 @@
         <v>0.03</v>
       </c>
       <c r="G64">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H64">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I64">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-24 15:20:40</v>
+        <v>2023-09-27 15:41:45</v>
       </c>
       <c r="B65">
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
       <c r="C65">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D65">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E65">
         <v>0.04</v>
@@ -2102,27 +2102,27 @@
         <v>0.03</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-24 19:01:06</v>
+        <v>2023-09-27 16:43:17</v>
       </c>
       <c r="B66">
-        <v>23.78</v>
+        <v>23.4</v>
       </c>
       <c r="C66">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D66">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E66">
         <v>0.04</v>
@@ -2131,27 +2131,27 @@
         <v>0.03</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-24 22:39:44</v>
+        <v>2023-09-27 17:49:06</v>
       </c>
       <c r="B67">
-        <v>23.67</v>
+        <v>23.38</v>
       </c>
       <c r="C67">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D67">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E67">
         <v>0.04</v>
@@ -2160,27 +2160,27 @@
         <v>0.03</v>
       </c>
       <c r="G67">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 02:19:02</v>
+        <v>2023-09-27 18:46:06</v>
       </c>
       <c r="B68">
-        <v>23.99</v>
+        <v>23.38</v>
       </c>
       <c r="C68">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D68">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E68">
         <v>0.04</v>
@@ -2189,27 +2189,27 @@
         <v>0.03</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H68">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I68">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 05:59:58</v>
+        <v>2023-09-27 19:51:39</v>
       </c>
       <c r="B69">
-        <v>23.99</v>
+        <v>23.38</v>
       </c>
       <c r="C69">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E69">
         <v>0.04</v>
@@ -2218,27 +2218,27 @@
         <v>0.03</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I69">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 09:35:43</v>
+        <v>2023-09-27 20:51:29</v>
       </c>
       <c r="B70">
-        <v>22.69</v>
+        <v>23.38</v>
       </c>
       <c r="C70">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D70">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E70">
         <v>0.04</v>
@@ -2247,27 +2247,27 @@
         <v>0.03</v>
       </c>
       <c r="G70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 13:17:12</v>
+        <v>2023-09-27 20:57:50</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>23.38</v>
       </c>
       <c r="C71">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D71">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E71">
         <v>0.04</v>
@@ -2276,27 +2276,27 @@
         <v>0.03</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I71">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 16:56:38</v>
+        <v>2023-09-27 21:58:02</v>
       </c>
       <c r="B72">
-        <v>21.8</v>
+        <v>23.28</v>
       </c>
       <c r="C72">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D72">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <v>0.04</v>
@@ -2305,27 +2305,27 @@
         <v>0.03</v>
       </c>
       <c r="G72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-25 20:34:33</v>
+        <v>2023-09-27 23:01:11</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>23.28</v>
       </c>
       <c r="C73">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D73">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E73">
         <v>0.04</v>
@@ -2334,27 +2334,27 @@
         <v>0.03</v>
       </c>
       <c r="G73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H73">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="I73">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 00:11:50</v>
+        <v>2023-09-27 23:57:31</v>
       </c>
       <c r="B74">
-        <v>24</v>
+        <v>23.28</v>
       </c>
       <c r="C74">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D74">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E74">
         <v>0.04</v>
@@ -2363,27 +2363,27 @@
         <v>0.03</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="I74">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 03:48:42</v>
+        <v>2023-09-28 01:01:13</v>
       </c>
       <c r="B75">
-        <v>24</v>
+        <v>23.28</v>
       </c>
       <c r="C75">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D75">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E75">
         <v>0.04</v>
@@ -2392,10 +2392,10 @@
         <v>0.03</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="I75">
         <v>10</v>
@@ -2403,16 +2403,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 07:28:04</v>
+        <v>2023-09-28 02:01:31</v>
       </c>
       <c r="B76">
-        <v>24</v>
+        <v>23.28</v>
       </c>
       <c r="C76">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D76">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E76">
         <v>0.04</v>
@@ -2421,7 +2421,7 @@
         <v>0.03</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76">
         <v>21.5</v>
@@ -2432,16 +2432,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 11:09:16</v>
+        <v>2023-09-28 03:00:29</v>
       </c>
       <c r="B77">
-        <v>24</v>
+        <v>23.28</v>
       </c>
       <c r="C77">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D77">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E77">
         <v>0.04</v>
@@ -2450,27 +2450,27 @@
         <v>0.03</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>21.5</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 14:48:07</v>
+        <v>2023-09-28 04:02:39</v>
       </c>
       <c r="B78">
-        <v>24</v>
+        <v>23.28</v>
       </c>
       <c r="C78">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D78">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E78">
         <v>0.04</v>
@@ -2479,24 +2479,24 @@
         <v>0.03</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I78">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 18:27:30</v>
+        <v>2023-09-28 04:59:52</v>
       </c>
       <c r="B79">
-        <v>23.99</v>
+        <v>23.38</v>
       </c>
       <c r="C79">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D79">
         <v>64</v>
@@ -2508,27 +2508,27 @@
         <v>0.03</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H79">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I79">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-26 22:04:29</v>
+        <v>2023-09-28 06:04:59</v>
       </c>
       <c r="B80">
-        <v>23.99</v>
+        <v>23.38</v>
       </c>
       <c r="C80">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D80">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E80">
         <v>0.04</v>
@@ -2537,27 +2537,27 @@
         <v>0.03</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H80">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I80">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 01:41:15</v>
+        <v>2023-09-28 07:09:45</v>
       </c>
       <c r="B81">
-        <v>23.99</v>
+        <v>23.68</v>
       </c>
       <c r="C81">
-        <v>27.3</v>
+        <v>27.24</v>
       </c>
       <c r="D81">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E81">
         <v>0.04</v>
@@ -2566,27 +2566,27 @@
         <v>0.03</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I81">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 05:21:12</v>
+        <v>2023-09-28 08:10:31</v>
       </c>
       <c r="B82">
-        <v>23.99</v>
+        <v>23.68</v>
       </c>
       <c r="C82">
         <v>27.24</v>
       </c>
       <c r="D82">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82">
         <v>0.04</v>
@@ -2595,27 +2595,27 @@
         <v>0.03</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I82">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 09:00:29</v>
+        <v>2023-09-28 09:10:57</v>
       </c>
       <c r="B83">
-        <v>23.99</v>
+        <v>23.89</v>
       </c>
       <c r="C83">
         <v>27.24</v>
       </c>
       <c r="D83">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E83">
         <v>0.04</v>
@@ -2624,27 +2624,27 @@
         <v>0.03</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83">
         <v>21.5</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 12:40:00</v>
+        <v>2023-09-28 10:08:24</v>
       </c>
       <c r="B84">
-        <v>23.98</v>
+        <v>23.89</v>
       </c>
       <c r="C84">
         <v>27.24</v>
       </c>
       <c r="D84">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E84">
         <v>0.04</v>
@@ -2653,27 +2653,27 @@
         <v>0.03</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I84">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 13:35:02</v>
+        <v>2023-09-28 10:13:27</v>
       </c>
       <c r="B85">
-        <v>23.98</v>
+        <v>23.89</v>
       </c>
       <c r="C85">
         <v>27.24</v>
       </c>
       <c r="D85">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E85">
         <v>0.04</v>
@@ -2682,18 +2682,18 @@
         <v>0.03</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H85">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 14:40:25</v>
+        <v>2023-09-28 11:19:28</v>
       </c>
       <c r="B86">
         <v>23.98</v>
@@ -2702,7 +2702,7 @@
         <v>27.24</v>
       </c>
       <c r="D86">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E86">
         <v>0.04</v>
@@ -2711,27 +2711,27 @@
         <v>0.03</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I86">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-27 15:41:45</v>
+        <v>2023-09-28 12:20:42</v>
       </c>
       <c r="B87">
-        <v>23.5</v>
+        <v>23.98</v>
       </c>
       <c r="C87">
         <v>27.24</v>
       </c>
       <c r="D87">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E87">
         <v>0.04</v>
@@ -2740,27 +2740,27 @@
         <v>0.03</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I87">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-27 16:43:17</v>
+        <v>2023-09-28 13:20:50</v>
       </c>
       <c r="B88">
-        <v>23.4</v>
+        <v>23.98</v>
       </c>
       <c r="C88">
         <v>27.24</v>
       </c>
       <c r="D88">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E88">
         <v>0.04</v>
@@ -2769,27 +2769,27 @@
         <v>0.03</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I88">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-27 17:49:06</v>
+        <v>2023-09-28 14:23:43</v>
       </c>
       <c r="B89">
-        <v>23.38</v>
+        <v>23.89</v>
       </c>
       <c r="C89">
         <v>27.24</v>
       </c>
       <c r="D89">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E89">
         <v>0.04</v>
@@ -2798,27 +2798,27 @@
         <v>0.03</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>21.6</v>
       </c>
       <c r="I89">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-27 18:46:06</v>
+        <v>2023-09-28 15:24:26</v>
       </c>
       <c r="B90">
-        <v>23.38</v>
+        <v>23.89</v>
       </c>
       <c r="C90">
         <v>27.24</v>
       </c>
       <c r="D90">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E90">
         <v>0.04</v>
@@ -2827,27 +2827,27 @@
         <v>0.03</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H90">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I90">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-27 19:51:39</v>
+        <v>2023-09-28 16:30:01</v>
       </c>
       <c r="B91">
-        <v>23.38</v>
+        <v>23.5</v>
       </c>
       <c r="C91">
         <v>27.24</v>
       </c>
       <c r="D91">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <v>0.04</v>
@@ -2856,27 +2856,27 @@
         <v>0.03</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-27 20:51:29</v>
+        <v>2023-09-28 17:31:47</v>
       </c>
       <c r="B92">
-        <v>23.38</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>27.24</v>
       </c>
       <c r="D92">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E92">
         <v>0.04</v>
@@ -2885,27 +2885,27 @@
         <v>0.03</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-27 20:57:50</v>
+        <v>2023-09-28 18:32:28</v>
       </c>
       <c r="B93">
-        <v>23.38</v>
+        <v>23</v>
       </c>
       <c r="C93">
         <v>27.24</v>
       </c>
       <c r="D93">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E93">
         <v>0.04</v>
@@ -2914,27 +2914,27 @@
         <v>0.03</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-27 21:58:02</v>
+        <v>2023-09-28 18:37:27</v>
       </c>
       <c r="B94">
-        <v>23.28</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>27.24</v>
       </c>
       <c r="D94">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E94">
         <v>0.04</v>
@@ -2943,27 +2943,27 @@
         <v>0.03</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I94">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-27 23:01:11</v>
+        <v>2023-09-28 19:41:22</v>
       </c>
       <c r="B95">
-        <v>23.28</v>
+        <v>21</v>
       </c>
       <c r="C95">
         <v>27.24</v>
       </c>
       <c r="D95">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E95">
         <v>0.04</v>
@@ -2972,27 +2972,27 @@
         <v>0.03</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="I95">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-27 23:57:31</v>
+        <v>2023-09-28 20:37:14</v>
       </c>
       <c r="B96">
-        <v>23.28</v>
+        <v>22.9</v>
       </c>
       <c r="C96">
         <v>27.24</v>
       </c>
       <c r="D96">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E96">
         <v>0.04</v>
@@ -3001,27 +3001,27 @@
         <v>0.03</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-28 01:01:13</v>
+        <v>2023-09-28 21:41:11</v>
       </c>
       <c r="B97">
-        <v>23.28</v>
+        <v>21.99</v>
       </c>
       <c r="C97">
         <v>27.24</v>
       </c>
       <c r="D97">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E97">
         <v>0.04</v>
@@ -3030,27 +3030,27 @@
         <v>0.03</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H97">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-28 02:01:31</v>
+        <v>2023-09-28 22:43:09</v>
       </c>
       <c r="B98">
-        <v>23.28</v>
+        <v>21.89</v>
       </c>
       <c r="C98">
         <v>27.24</v>
       </c>
       <c r="D98">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E98">
         <v>0.04</v>
@@ -3059,27 +3059,27 @@
         <v>0.03</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H98">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I98">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-28 03:00:29</v>
+        <v>2023-09-28 22:49:04</v>
       </c>
       <c r="B99">
-        <v>23.28</v>
+        <v>21.89</v>
       </c>
       <c r="C99">
         <v>27.24</v>
       </c>
       <c r="D99">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E99">
         <v>0.04</v>
@@ -3088,27 +3088,27 @@
         <v>0.03</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-28 04:02:39</v>
+        <v>2023-09-28 23:50:00</v>
       </c>
       <c r="B100">
-        <v>23.28</v>
+        <v>21</v>
       </c>
       <c r="C100">
         <v>27.24</v>
       </c>
       <c r="D100">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E100">
         <v>0.04</v>
@@ -3117,27 +3117,27 @@
         <v>0.03</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I100">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-28 04:59:52</v>
+        <v>2023-09-29 00:54:05</v>
       </c>
       <c r="B101">
-        <v>23.38</v>
+        <v>21.89</v>
       </c>
       <c r="C101">
         <v>27.24</v>
       </c>
       <c r="D101">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E101">
         <v>0.04</v>
@@ -3146,27 +3146,27 @@
         <v>0.03</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H101">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I101">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-28 06:04:59</v>
+        <v>2023-09-29 01:54:34</v>
       </c>
       <c r="B102">
-        <v>23.38</v>
+        <v>21.89</v>
       </c>
       <c r="C102">
         <v>27.24</v>
       </c>
       <c r="D102">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E102">
         <v>0.04</v>
@@ -3175,27 +3175,27 @@
         <v>0.03</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-28 07:09:45</v>
+        <v>2023-09-29 02:59:19</v>
       </c>
       <c r="B103">
-        <v>23.68</v>
+        <v>21.89</v>
       </c>
       <c r="C103">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D103">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E103">
         <v>0.04</v>
@@ -3204,27 +3204,27 @@
         <v>0.03</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I103">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-28 08:10:31</v>
+        <v>2023-09-29 04:02:33</v>
       </c>
       <c r="B104">
-        <v>23.68</v>
+        <v>21.89</v>
       </c>
       <c r="C104">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D104">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E104">
         <v>0.04</v>
@@ -3233,27 +3233,27 @@
         <v>0.03</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I104">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-28 09:10:57</v>
+        <v>2023-09-29 05:03:12</v>
       </c>
       <c r="B105">
-        <v>23.89</v>
+        <v>21.89</v>
       </c>
       <c r="C105">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D105">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E105">
         <v>0.04</v>
@@ -3265,24 +3265,24 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I105">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-28 10:08:24</v>
+        <v>2023-09-29 05:08:43</v>
       </c>
       <c r="B106">
-        <v>23.89</v>
+        <v>21.89</v>
       </c>
       <c r="C106">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D106">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E106">
         <v>0.04</v>
@@ -3294,24 +3294,24 @@
         <v>3</v>
       </c>
       <c r="H106">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I106">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-09-28 10:13:27</v>
+        <v>2023-09-29 06:12:06</v>
       </c>
       <c r="B107">
-        <v>23.89</v>
+        <v>21.89</v>
       </c>
       <c r="C107">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D107">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E107">
         <v>0.04</v>
@@ -3323,24 +3323,24 @@
         <v>3</v>
       </c>
       <c r="H107">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I107">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-09-28 11:19:28</v>
+        <v>2023-09-29 07:09:45</v>
       </c>
       <c r="B108">
-        <v>23.98</v>
+        <v>21.89</v>
       </c>
       <c r="C108">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D108">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E108">
         <v>0.04</v>
@@ -3352,24 +3352,24 @@
         <v>3</v>
       </c>
       <c r="H108">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I108">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-09-28 12:20:42</v>
+        <v>2023-09-29 08:13:32</v>
       </c>
       <c r="B109">
-        <v>23.98</v>
+        <v>21.89</v>
       </c>
       <c r="C109">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D109">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E109">
         <v>0.04</v>
@@ -3381,24 +3381,24 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-09-28 13:20:50</v>
+        <v>2023-09-29 08:17:55</v>
       </c>
       <c r="B110">
-        <v>23.98</v>
+        <v>21.89</v>
       </c>
       <c r="C110">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D110">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E110">
         <v>0.04</v>
@@ -3410,24 +3410,24 @@
         <v>3</v>
       </c>
       <c r="H110">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I110">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-09-28 14:23:43</v>
+        <v>2023-09-29 09:20:26</v>
       </c>
       <c r="B111">
-        <v>23.89</v>
+        <v>21.89</v>
       </c>
       <c r="C111">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D111">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E111">
         <v>0.04</v>
@@ -3439,24 +3439,24 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <v>21.6</v>
+        <v>20.2</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-09-28 15:24:26</v>
+        <v>2023-09-29 10:20:14</v>
       </c>
       <c r="B112">
-        <v>23.89</v>
+        <v>21.88</v>
       </c>
       <c r="C112">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D112">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E112">
         <v>0.04</v>
@@ -3468,24 +3468,24 @@
         <v>3</v>
       </c>
       <c r="H112">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I112">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-09-28 16:30:01</v>
+        <v>2023-09-29 11:23:40</v>
       </c>
       <c r="B113">
-        <v>23.5</v>
+        <v>21.68</v>
       </c>
       <c r="C113">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D113">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E113">
         <v>0.04</v>
@@ -3497,24 +3497,24 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-09-28 17:31:47</v>
+        <v>2023-09-29 11:29:46</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>21.68</v>
       </c>
       <c r="C114">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D114">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E114">
         <v>0.04</v>
@@ -3526,24 +3526,24 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I114">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-09-28 18:32:28</v>
+        <v>2023-09-29 12:29:07</v>
       </c>
       <c r="B115">
-        <v>23</v>
+        <v>21.38</v>
       </c>
       <c r="C115">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D115">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E115">
         <v>0.04</v>
@@ -3552,27 +3552,27 @@
         <v>0.03</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H115">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I115">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-09-28 18:37:27</v>
+        <v>2023-09-29 13:30:25</v>
       </c>
       <c r="B116">
-        <v>23</v>
+        <v>21.88</v>
       </c>
       <c r="C116">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D116">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E116">
         <v>0.04</v>
@@ -3581,27 +3581,27 @@
         <v>0.03</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H116">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I116">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-09-28 19:41:22</v>
+        <v>2023-09-29 14:32:17</v>
       </c>
       <c r="B117">
-        <v>21</v>
+        <v>21.28</v>
       </c>
       <c r="C117">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D117">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E117">
         <v>0.04</v>
@@ -3610,27 +3610,27 @@
         <v>0.03</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H117">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="I117">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-09-28 20:37:14</v>
+        <v>2023-09-29 15:32:53</v>
       </c>
       <c r="B118">
-        <v>22.9</v>
+        <v>20.98</v>
       </c>
       <c r="C118">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D118">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E118">
         <v>0.04</v>
@@ -3639,7 +3639,7 @@
         <v>0.03</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H118">
         <v>20.2</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-09-28 21:41:11</v>
+        <v>2023-09-29 16:33:07</v>
       </c>
       <c r="B119">
-        <v>21.99</v>
+        <v>20.88</v>
       </c>
       <c r="C119">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D119">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E119">
         <v>0.04</v>
@@ -3668,7 +3668,7 @@
         <v>0.03</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H119">
         <v>20.2</v>
@@ -3679,16 +3679,16 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-09-28 22:43:09</v>
+        <v>2023-09-29 16:39:04</v>
       </c>
       <c r="B120">
-        <v>21.89</v>
+        <v>20.88</v>
       </c>
       <c r="C120">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D120">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E120">
         <v>0.04</v>
@@ -3708,16 +3708,16 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-09-28 22:49:04</v>
+        <v>2023-09-29 17:38:55</v>
       </c>
       <c r="B121">
-        <v>21.89</v>
+        <v>20.78</v>
       </c>
       <c r="C121">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D121">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E121">
         <v>0.04</v>
@@ -3729,24 +3729,24 @@
         <v>4</v>
       </c>
       <c r="H121">
-        <v>20.2</v>
+        <v>15.9</v>
       </c>
       <c r="I121">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-09-28 23:50:00</v>
+        <v>2023-09-29 18:43:04</v>
       </c>
       <c r="B122">
-        <v>21</v>
+        <v>20.68</v>
       </c>
       <c r="C122">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D122">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E122">
         <v>0.04</v>
@@ -3755,27 +3755,27 @@
         <v>0.03</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I122">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-09-29 00:54:05</v>
+        <v>2023-09-29 19:43:26</v>
       </c>
       <c r="B123">
-        <v>21.89</v>
+        <v>20</v>
       </c>
       <c r="C123">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D123">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E123">
         <v>0.04</v>
@@ -3784,27 +3784,27 @@
         <v>0.03</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H123">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-09-29 01:54:34</v>
+        <v>2023-09-29 19:48:59</v>
       </c>
       <c r="B124">
-        <v>21.89</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>27.24</v>
+        <v>25.48</v>
       </c>
       <c r="D124">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E124">
         <v>0.04</v>
@@ -3813,27 +3813,27 @@
         <v>0.03</v>
       </c>
       <c r="G124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-09-29 02:59:19</v>
+        <v>2023-09-29 20:48:32</v>
       </c>
       <c r="B125">
-        <v>21.89</v>
+        <v>20</v>
       </c>
       <c r="C125">
         <v>25.48</v>
       </c>
       <c r="D125">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E125">
         <v>0.04</v>
@@ -3842,27 +3842,27 @@
         <v>0.03</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H125">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-09-29 04:02:33</v>
+        <v>2023-09-29 21:51:12</v>
       </c>
       <c r="B126">
-        <v>21.89</v>
+        <v>20.88</v>
       </c>
       <c r="C126">
         <v>25.48</v>
       </c>
       <c r="D126">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E126">
         <v>0.04</v>
@@ -3871,10 +3871,10 @@
         <v>0.03</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H126">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I126">
         <v>5</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-09-29 05:03:12</v>
+        <v>2023-09-29 22:48:51</v>
       </c>
       <c r="B127">
-        <v>21.89</v>
+        <v>20.78</v>
       </c>
       <c r="C127">
         <v>25.48</v>
       </c>
       <c r="D127">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E127">
         <v>0.04</v>
@@ -3903,7 +3903,7 @@
         <v>3</v>
       </c>
       <c r="H127">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I127">
         <v>5</v>
@@ -3911,16 +3911,16 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-09-29 05:08:43</v>
+        <v>2023-09-29 23:52:02</v>
       </c>
       <c r="B128">
-        <v>21.89</v>
+        <v>20</v>
       </c>
       <c r="C128">
         <v>25.48</v>
       </c>
       <c r="D128">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E128">
         <v>0.04</v>
@@ -3932,24 +3932,24 @@
         <v>3</v>
       </c>
       <c r="H128">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I128">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-09-29 06:12:06</v>
+        <v>2023-09-30 00:53:04</v>
       </c>
       <c r="B129">
-        <v>21.89</v>
+        <v>20.88</v>
       </c>
       <c r="C129">
         <v>25.48</v>
       </c>
       <c r="D129">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E129">
         <v>0.04</v>
@@ -3961,24 +3961,24 @@
         <v>3</v>
       </c>
       <c r="H129">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I129">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-09-29 07:09:45</v>
+        <v>2023-09-30 00:58:55</v>
       </c>
       <c r="B130">
-        <v>21.89</v>
+        <v>20.88</v>
       </c>
       <c r="C130">
         <v>25.48</v>
       </c>
       <c r="D130">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E130">
         <v>0.04</v>
@@ -3990,7 +3990,7 @@
         <v>3</v>
       </c>
       <c r="H130">
-        <v>20.2</v>
+        <v>16</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-09-29 08:13:32</v>
+        <v>2023-09-30 02:03:18</v>
       </c>
       <c r="B131">
-        <v>21.89</v>
+        <v>20.88</v>
       </c>
       <c r="C131">
         <v>25.48</v>
       </c>
       <c r="D131">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E131">
         <v>0.04</v>
@@ -4019,24 +4019,24 @@
         <v>3</v>
       </c>
       <c r="H131">
-        <v>20.2</v>
+        <v>16.1</v>
       </c>
       <c r="I131">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-09-29 08:17:55</v>
+        <v>2023-09-30 05:43:46</v>
       </c>
       <c r="B132">
-        <v>21.89</v>
+        <v>20.88</v>
       </c>
       <c r="C132">
-        <v>25.48</v>
+        <v>27.5</v>
       </c>
       <c r="D132">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E132">
         <v>0.04</v>
@@ -4048,24 +4048,24 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <v>20.2</v>
+        <v>16.1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-09-29 09:20:26</v>
+        <v>2023-09-30 09:22:48</v>
       </c>
       <c r="B133">
-        <v>21.89</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>25.48</v>
+        <v>27.5</v>
       </c>
       <c r="D133">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E133">
         <v>0.04</v>
@@ -4077,24 +4077,24 @@
         <v>3</v>
       </c>
       <c r="H133">
-        <v>20.2</v>
+        <v>16.2</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-09-29 10:20:14</v>
+        <v>2023-09-30 13:03:34</v>
       </c>
       <c r="B134">
-        <v>21.88</v>
+        <v>20.78</v>
       </c>
       <c r="C134">
-        <v>25.48</v>
+        <v>27.5</v>
       </c>
       <c r="D134">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E134">
         <v>0.04</v>
@@ -4106,24 +4106,24 @@
         <v>3</v>
       </c>
       <c r="H134">
-        <v>20.2</v>
+        <v>17</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-09-29 11:23:40</v>
+        <v>2023-09-30 16:44:16</v>
       </c>
       <c r="B135">
-        <v>21.68</v>
+        <v>19</v>
       </c>
       <c r="C135">
-        <v>25.48</v>
+        <v>27.5</v>
       </c>
       <c r="D135">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E135">
         <v>0.04</v>
@@ -4135,24 +4135,24 @@
         <v>3</v>
       </c>
       <c r="H135">
-        <v>20.2</v>
+        <v>17.1</v>
       </c>
       <c r="I135">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-09-29 11:29:46</v>
+        <v>2023-09-30 20:23:10</v>
       </c>
       <c r="B136">
-        <v>21.68</v>
+        <v>18.89</v>
       </c>
       <c r="C136">
-        <v>25.48</v>
+        <v>27.5</v>
       </c>
       <c r="D136">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E136">
         <v>0.04</v>
@@ -4164,24 +4164,24 @@
         <v>3</v>
       </c>
       <c r="H136">
-        <v>20.2</v>
+        <v>17.3</v>
       </c>
       <c r="I136">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-09-29 12:29:07</v>
+        <v>2023-09-30 23:59:46</v>
       </c>
       <c r="B137">
-        <v>21.38</v>
+        <v>18.89</v>
       </c>
       <c r="C137">
-        <v>25.48</v>
+        <v>27.5</v>
       </c>
       <c r="D137">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E137">
         <v>0.04</v>
@@ -4190,27 +4190,27 @@
         <v>0.03</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H137">
-        <v>20.2</v>
+        <v>17.39</v>
       </c>
       <c r="I137">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-09-29 13:30:25</v>
+        <v>2023-10-01 03:36:14</v>
       </c>
       <c r="B138">
-        <v>21.88</v>
+        <v>19</v>
       </c>
       <c r="C138">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D138">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E138">
         <v>0.04</v>
@@ -4219,27 +4219,27 @@
         <v>0.03</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>20.2</v>
+        <v>17.39</v>
       </c>
       <c r="I138">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-09-29 14:32:17</v>
+        <v>2023-10-01 07:14:09</v>
       </c>
       <c r="B139">
-        <v>21.28</v>
+        <v>19</v>
       </c>
       <c r="C139">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D139">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E139">
         <v>0.04</v>
@@ -4248,27 +4248,27 @@
         <v>0.03</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>20.2</v>
+        <v>17.39</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-09-29 15:32:53</v>
+        <v>2023-10-01 10:51:04</v>
       </c>
       <c r="B140">
-        <v>20.98</v>
+        <v>20.68</v>
       </c>
       <c r="C140">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D140">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E140">
         <v>0.04</v>
@@ -4277,27 +4277,27 @@
         <v>0.03</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>20.2</v>
+        <v>17.39</v>
       </c>
       <c r="I140">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-09-29 16:33:07</v>
+        <v>2023-10-01 14:27:59</v>
       </c>
       <c r="B141">
-        <v>20.88</v>
+        <v>20.67</v>
       </c>
       <c r="C141">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D141">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E141">
         <v>0.04</v>
@@ -4306,27 +4306,27 @@
         <v>0.03</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H141">
-        <v>20.2</v>
+        <v>17.5</v>
       </c>
       <c r="I141">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-09-29 16:39:04</v>
+        <v>2023-10-01 18:07:21</v>
       </c>
       <c r="B142">
-        <v>20.88</v>
+        <v>20.68</v>
       </c>
       <c r="C142">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D142">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E142">
         <v>0.04</v>
@@ -4335,27 +4335,27 @@
         <v>0.03</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H142">
-        <v>20.2</v>
+        <v>17.89</v>
       </c>
       <c r="I142">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-09-29 17:38:55</v>
+        <v>2023-10-01 18:13:06</v>
       </c>
       <c r="B143">
-        <v>20.78</v>
+        <v>20.68</v>
       </c>
       <c r="C143">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D143">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E143">
         <v>0.04</v>
@@ -4364,27 +4364,27 @@
         <v>0.03</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H143">
-        <v>15.9</v>
+        <v>17.89</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-09-29 18:43:04</v>
+        <v>2023-10-01 21:54:00</v>
       </c>
       <c r="B144">
         <v>20.68</v>
       </c>
       <c r="C144">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D144">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E144">
         <v>0.04</v>
@@ -4393,27 +4393,27 @@
         <v>0.03</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="I144">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-09-29 19:43:26</v>
+        <v>2023-10-02 01:34:38</v>
       </c>
       <c r="B145">
-        <v>20</v>
+        <v>20.98</v>
       </c>
       <c r="C145">
-        <v>25.48</v>
+        <v>27.62</v>
       </c>
       <c r="D145">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E145">
         <v>0.04</v>
@@ -4422,27 +4422,27 @@
         <v>0.03</v>
       </c>
       <c r="G145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-09-29 19:48:59</v>
+        <v>2023-10-02 05:13:26</v>
       </c>
       <c r="B146">
-        <v>20</v>
+        <v>20.98</v>
       </c>
       <c r="C146">
-        <v>25.48</v>
+        <v>28.79</v>
       </c>
       <c r="D146">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E146">
         <v>0.04</v>
@@ -4451,27 +4451,27 @@
         <v>0.03</v>
       </c>
       <c r="G146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="I146">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-09-29 20:48:32</v>
+        <v>2023-10-02 08:53:41</v>
       </c>
       <c r="B147">
-        <v>20</v>
+        <v>20.98</v>
       </c>
       <c r="C147">
-        <v>25.48</v>
+        <v>28.79</v>
       </c>
       <c r="D147">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E147">
         <v>0.04</v>
@@ -4480,27 +4480,27 @@
         <v>0.03</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="I147">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-09-29 21:51:12</v>
+        <v>2023-10-02 12:29:15</v>
       </c>
       <c r="B148">
-        <v>20.88</v>
+        <v>21.08</v>
       </c>
       <c r="C148">
-        <v>25.48</v>
+        <v>28.79</v>
       </c>
       <c r="D148">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E148">
         <v>0.04</v>
@@ -4509,27 +4509,27 @@
         <v>0.03</v>
       </c>
       <c r="G148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>16</v>
+        <v>18.6</v>
       </c>
       <c r="I148">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-09-29 22:48:51</v>
+        <v>2023-10-02 16:04:28</v>
       </c>
       <c r="B149">
-        <v>20.78</v>
+        <v>21.08</v>
       </c>
       <c r="C149">
-        <v>25.48</v>
+        <v>28.79</v>
       </c>
       <c r="D149">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E149">
         <v>0.04</v>
@@ -4541,24 +4541,24 @@
         <v>3</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>19.1</v>
       </c>
       <c r="I149">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-09-29 23:52:02</v>
+        <v>2023-10-02 19:45:50</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>20.98</v>
       </c>
       <c r="C150">
-        <v>25.48</v>
+        <v>28.79</v>
       </c>
       <c r="D150">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E150">
         <v>0.04</v>
@@ -4570,24 +4570,24 @@
         <v>3</v>
       </c>
       <c r="H150">
-        <v>16</v>
+        <v>19.3</v>
       </c>
       <c r="I150">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-09-30 00:53:04</v>
+        <v>2023-10-02 23:22:25</v>
       </c>
       <c r="B151">
-        <v>20.88</v>
+        <v>21.79</v>
       </c>
       <c r="C151">
-        <v>25.48</v>
+        <v>28.79</v>
       </c>
       <c r="D151">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E151">
         <v>0.04</v>
@@ -4599,24 +4599,24 @@
         <v>3</v>
       </c>
       <c r="H151">
-        <v>16</v>
+        <v>19.3</v>
       </c>
       <c r="I151">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-09-30 00:58:55</v>
+        <v>2023-10-03 03:04:46</v>
       </c>
       <c r="B152">
-        <v>20.88</v>
+        <v>21.89</v>
       </c>
       <c r="C152">
-        <v>25.48</v>
+        <v>29.51</v>
       </c>
       <c r="D152">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E152">
         <v>0.04</v>
@@ -4628,24 +4628,24 @@
         <v>3</v>
       </c>
       <c r="H152">
-        <v>16</v>
+        <v>19.2</v>
       </c>
       <c r="I152">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-09-30 02:03:18</v>
+        <v>2023-10-03 06:44:13</v>
       </c>
       <c r="B153">
-        <v>20.88</v>
+        <v>21.89</v>
       </c>
       <c r="C153">
-        <v>25.48</v>
+        <v>29.51</v>
       </c>
       <c r="D153">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E153">
         <v>0.04</v>
@@ -4657,24 +4657,24 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <v>16.1</v>
+        <v>19.2</v>
       </c>
       <c r="I153">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-09-30 05:43:46</v>
+        <v>2023-10-03 10:24:17</v>
       </c>
       <c r="B154">
-        <v>20.88</v>
+        <v>21.89</v>
       </c>
       <c r="C154">
-        <v>27.5</v>
+        <v>29.51</v>
       </c>
       <c r="D154">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E154">
         <v>0.04</v>
@@ -4686,24 +4686,24 @@
         <v>3</v>
       </c>
       <c r="H154">
-        <v>16.1</v>
+        <v>19.2</v>
       </c>
       <c r="I154">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-09-30 09:22:48</v>
+        <v>2023-10-03 14:00:42</v>
       </c>
       <c r="B155">
-        <v>20</v>
+        <v>21.89</v>
       </c>
       <c r="C155">
-        <v>27.5</v>
+        <v>29.51</v>
       </c>
       <c r="D155">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E155">
         <v>0.04</v>
@@ -4715,210 +4715,210 @@
         <v>3</v>
       </c>
       <c r="H155">
-        <v>16.2</v>
+        <v>19.7</v>
       </c>
       <c r="I155">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-09-30 13:03:34</v>
+        <v>2023-10-03 17:36:15</v>
       </c>
       <c r="B156">
-        <v>20.78</v>
+        <v>21.89</v>
       </c>
       <c r="C156">
-        <v>27.5</v>
+        <v>29.51</v>
       </c>
       <c r="D156">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E156">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F156">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H156">
-        <v>17</v>
+        <v>19.3</v>
       </c>
       <c r="I156">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-09-30 16:44:16</v>
+        <v>2023-10-03 21:13:51</v>
       </c>
       <c r="B157">
-        <v>19</v>
+        <v>21.89</v>
       </c>
       <c r="C157">
-        <v>27.5</v>
+        <v>29.51</v>
       </c>
       <c r="D157">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E157">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F157">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H157">
-        <v>17.1</v>
+        <v>19.39</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-09-30 20:23:10</v>
+        <v>2023-10-04 00:52:30</v>
       </c>
       <c r="B158">
-        <v>18.89</v>
+        <v>21.89</v>
       </c>
       <c r="C158">
-        <v>27.5</v>
+        <v>29.51</v>
       </c>
       <c r="D158">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E158">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F158">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H158">
-        <v>17.3</v>
+        <v>19.39</v>
       </c>
       <c r="I158">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-09-30 23:59:46</v>
+        <v>2023-10-04 04:27:54</v>
       </c>
       <c r="B159">
-        <v>18.89</v>
+        <v>21.89</v>
       </c>
       <c r="C159">
-        <v>27.5</v>
+        <v>29.25</v>
       </c>
       <c r="D159">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E159">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F159">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H159">
-        <v>17.39</v>
+        <v>19.39</v>
       </c>
       <c r="I159">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-01 03:36:14</v>
+        <v>2023-10-04 08:06:04</v>
       </c>
       <c r="B160">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C160">
-        <v>27.62</v>
+        <v>29.25</v>
       </c>
       <c r="D160">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E160">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F160">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H160">
-        <v>17.39</v>
+        <v>19.39</v>
       </c>
       <c r="I160">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-01 07:14:09</v>
+        <v>2023-10-04 11:46:22</v>
       </c>
       <c r="B161">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>27.62</v>
+        <v>29.25</v>
       </c>
       <c r="D161">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E161">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F161">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H161">
-        <v>17.39</v>
+        <v>19.39</v>
       </c>
       <c r="I161">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-01 10:51:04</v>
+        <v>2023-10-04 15:27:09</v>
       </c>
       <c r="B162">
-        <v>20.68</v>
+        <v>21.95</v>
       </c>
       <c r="C162">
-        <v>27.62</v>
+        <v>29.25</v>
       </c>
       <c r="D162">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E162">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F162">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H162">
-        <v>17.39</v>
+        <v>19.3</v>
       </c>
       <c r="I162">
         <v>8</v>
@@ -4926,13 +4926,13 @@
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-01 14:27:59</v>
+        <v>2023-10-04 19:07:52</v>
       </c>
       <c r="B163">
-        <v>20.67</v>
+        <v>21.95</v>
       </c>
       <c r="C163">
-        <v>27.62</v>
+        <v>29.25</v>
       </c>
       <c r="D163">
         <v>72</v>
@@ -4944,27 +4944,27 @@
         <v>0.03</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H163">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="I163">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-01 18:07:21</v>
+        <v>2023-10-04 22:47:10</v>
       </c>
       <c r="B164">
-        <v>20.68</v>
+        <v>21.49</v>
       </c>
       <c r="C164">
-        <v>27.62</v>
+        <v>29.25</v>
       </c>
       <c r="D164">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E164">
         <v>0.04</v>
@@ -4973,27 +4973,27 @@
         <v>0.03</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H164">
-        <v>17.89</v>
+        <v>19.5</v>
       </c>
       <c r="I164">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-01 18:13:06</v>
+        <v>2023-10-05 02:23:11</v>
       </c>
       <c r="B165">
-        <v>20.68</v>
+        <v>21.49</v>
       </c>
       <c r="C165">
-        <v>27.62</v>
+        <v>27.89</v>
       </c>
       <c r="D165">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E165">
         <v>0.04</v>
@@ -5002,27 +5002,27 @@
         <v>0.03</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H165">
-        <v>17.89</v>
+        <v>19.5</v>
       </c>
       <c r="I165">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-01 21:54:00</v>
+        <v>2023-10-05 05:59:05</v>
       </c>
       <c r="B166">
-        <v>20.68</v>
+        <v>21.95</v>
       </c>
       <c r="C166">
-        <v>27.62</v>
+        <v>27.89</v>
       </c>
       <c r="D166">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E166">
         <v>0.04</v>
@@ -5031,10 +5031,10 @@
         <v>0.03</v>
       </c>
       <c r="G166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H166">
-        <v>18.2</v>
+        <v>19.5</v>
       </c>
       <c r="I166">
         <v>9</v>
@@ -5042,16 +5042,16 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-02 01:34:38</v>
+        <v>2023-10-05 09:37:16</v>
       </c>
       <c r="B167">
-        <v>20.98</v>
+        <v>21.96</v>
       </c>
       <c r="C167">
-        <v>27.62</v>
+        <v>27.89</v>
       </c>
       <c r="D167">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E167">
         <v>0.04</v>
@@ -5060,10 +5060,10 @@
         <v>0.03</v>
       </c>
       <c r="G167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H167">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I167">
         <v>9</v>
@@ -5071,16 +5071,16 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-02 05:13:26</v>
+        <v>2023-10-05 13:16:09</v>
       </c>
       <c r="B168">
-        <v>20.98</v>
+        <v>22</v>
       </c>
       <c r="C168">
-        <v>28.79</v>
+        <v>27.89</v>
       </c>
       <c r="D168">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E168">
         <v>0.04</v>
@@ -5089,10 +5089,10 @@
         <v>0.03</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H168">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I168">
         <v>9</v>
@@ -5100,13 +5100,13 @@
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-02 08:53:41</v>
+        <v>2023-10-05 16:58:08</v>
       </c>
       <c r="B169">
-        <v>20.98</v>
+        <v>22</v>
       </c>
       <c r="C169">
-        <v>28.79</v>
+        <v>27.89</v>
       </c>
       <c r="D169">
         <v>70</v>
@@ -5118,27 +5118,27 @@
         <v>0.03</v>
       </c>
       <c r="G169">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H169">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I169">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-02 12:29:15</v>
+        <v>2023-10-05 20:36:10</v>
       </c>
       <c r="B170">
-        <v>21.08</v>
+        <v>21.9</v>
       </c>
       <c r="C170">
-        <v>28.79</v>
+        <v>27.89</v>
       </c>
       <c r="D170">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E170">
         <v>0.04</v>
@@ -5147,10 +5147,10 @@
         <v>0.03</v>
       </c>
       <c r="G170">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H170">
-        <v>18.6</v>
+        <v>19.39</v>
       </c>
       <c r="I170">
         <v>8</v>
@@ -5158,16 +5158,16 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-02 16:04:28</v>
+        <v>2023-10-06 00:17:41</v>
       </c>
       <c r="B171">
-        <v>21.08</v>
+        <v>21.89</v>
       </c>
       <c r="C171">
-        <v>28.79</v>
+        <v>27.89</v>
       </c>
       <c r="D171">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E171">
         <v>0.04</v>
@@ -5176,27 +5176,27 @@
         <v>0.03</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H171">
-        <v>19.1</v>
+        <v>18.89</v>
       </c>
       <c r="I171">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-02 19:45:50</v>
+        <v>2023-10-06 03:56:51</v>
       </c>
       <c r="B172">
-        <v>20.98</v>
+        <v>21.9</v>
       </c>
       <c r="C172">
-        <v>28.79</v>
+        <v>28.14</v>
       </c>
       <c r="D172">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E172">
         <v>0.04</v>
@@ -5205,27 +5205,27 @@
         <v>0.03</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H172">
-        <v>19.3</v>
+        <v>18.89</v>
       </c>
       <c r="I172">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-02 23:22:25</v>
+        <v>2023-10-06 07:36:38</v>
       </c>
       <c r="B173">
-        <v>21.79</v>
+        <v>21.9</v>
       </c>
       <c r="C173">
-        <v>28.79</v>
+        <v>28.14</v>
       </c>
       <c r="D173">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E173">
         <v>0.04</v>
@@ -5234,27 +5234,27 @@
         <v>0.03</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H173">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="I173">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-03 03:04:46</v>
+        <v>2023-10-06 11:15:42</v>
       </c>
       <c r="B174">
-        <v>21.89</v>
+        <v>21.8</v>
       </c>
       <c r="C174">
-        <v>29.51</v>
+        <v>28.14</v>
       </c>
       <c r="D174">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E174">
         <v>0.04</v>
@@ -5263,7 +5263,7 @@
         <v>0.03</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H174">
         <v>19.2</v>
@@ -5274,16 +5274,16 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-03 06:44:13</v>
+        <v>2023-10-06 14:53:29</v>
       </c>
       <c r="B175">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="C175">
-        <v>29.51</v>
+        <v>28.14</v>
       </c>
       <c r="D175">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E175">
         <v>0.04</v>
@@ -5292,7 +5292,7 @@
         <v>0.03</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H175">
         <v>19.2</v>
@@ -5303,16 +5303,16 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-03 10:24:17</v>
+        <v>2023-10-06 18:29:43</v>
       </c>
       <c r="B176">
-        <v>21.89</v>
+        <v>21.7</v>
       </c>
       <c r="C176">
-        <v>29.51</v>
+        <v>28.14</v>
       </c>
       <c r="D176">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E176">
         <v>0.04</v>
@@ -5321,10 +5321,10 @@
         <v>0.03</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H176">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="I176">
         <v>8</v>
@@ -5332,16 +5332,16 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-03 14:00:42</v>
+        <v>2023-10-06 22:08:21</v>
       </c>
       <c r="B177">
-        <v>21.89</v>
+        <v>21</v>
       </c>
       <c r="C177">
-        <v>29.51</v>
+        <v>28.14</v>
       </c>
       <c r="D177">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E177">
         <v>0.04</v>
@@ -5350,39 +5350,39 @@
         <v>0.03</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H177">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="I177">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-03 17:36:15</v>
+        <v>2023-10-07 01:47:14</v>
       </c>
       <c r="B178">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="C178">
-        <v>29.51</v>
+        <v>28.14</v>
       </c>
       <c r="D178">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E178">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F178">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H178">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="I178">
         <v>6</v>
@@ -5390,190 +5390,190 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-03 21:13:51</v>
+        <v>2023-10-07 05:28:37</v>
       </c>
       <c r="B179">
-        <v>21.89</v>
+        <v>21.9</v>
       </c>
       <c r="C179">
-        <v>29.51</v>
+        <v>31.98</v>
       </c>
       <c r="D179">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E179">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F179">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G179">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H179">
-        <v>19.39</v>
+        <v>19.5</v>
       </c>
       <c r="I179">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-04 00:52:30</v>
+        <v>2023-10-07 09:09:29</v>
       </c>
       <c r="B180">
-        <v>21.89</v>
+        <v>21.7</v>
       </c>
       <c r="C180">
-        <v>29.51</v>
+        <v>31.98</v>
       </c>
       <c r="D180">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E180">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F180">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H180">
-        <v>19.39</v>
+        <v>19.6</v>
       </c>
       <c r="I180">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-04 04:27:54</v>
+        <v>2023-10-07 12:48:35</v>
       </c>
       <c r="B181">
-        <v>21.89</v>
+        <v>21.7</v>
       </c>
       <c r="C181">
-        <v>29.25</v>
+        <v>31.98</v>
       </c>
       <c r="D181">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E181">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F181">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G181">
         <v>5</v>
       </c>
       <c r="H181">
-        <v>19.39</v>
+        <v>19.6</v>
       </c>
       <c r="I181">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-04 08:06:04</v>
+        <v>2023-10-07 16:23:57</v>
       </c>
       <c r="B182">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="C182">
-        <v>29.25</v>
+        <v>31.98</v>
       </c>
       <c r="D182">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E182">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F182">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G182">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H182">
-        <v>19.39</v>
+        <v>19.7</v>
       </c>
       <c r="I182">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-04 11:46:22</v>
+        <v>2023-10-07 20:00:13</v>
       </c>
       <c r="B183">
-        <v>22</v>
+        <v>21.7</v>
       </c>
       <c r="C183">
-        <v>29.25</v>
+        <v>31.98</v>
       </c>
       <c r="D183">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E183">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F183">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G183">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H183">
-        <v>19.39</v>
+        <v>19.7</v>
       </c>
       <c r="I183">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-04 15:27:09</v>
+        <v>2023-10-07 23:38:21</v>
       </c>
       <c r="B184">
-        <v>21.95</v>
+        <v>21.7</v>
       </c>
       <c r="C184">
-        <v>29.25</v>
+        <v>31.98</v>
       </c>
       <c r="D184">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E184">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F184">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H184">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="I184">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-04 19:07:52</v>
+        <v>2023-10-08 03:18:51</v>
       </c>
       <c r="B185">
-        <v>21.95</v>
+        <v>21.9</v>
       </c>
       <c r="C185">
-        <v>29.25</v>
+        <v>28.53</v>
       </c>
       <c r="D185">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E185">
         <v>0.04</v>
@@ -5582,27 +5582,27 @@
         <v>0.03</v>
       </c>
       <c r="G185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H185">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="I185">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-04 22:47:10</v>
+        <v>2023-10-08 07:00:16</v>
       </c>
       <c r="B186">
-        <v>21.49</v>
+        <v>21.9</v>
       </c>
       <c r="C186">
-        <v>29.25</v>
+        <v>28.53</v>
       </c>
       <c r="D186">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E186">
         <v>0.04</v>
@@ -5611,27 +5611,27 @@
         <v>0.03</v>
       </c>
       <c r="G186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H186">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="I186">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-05 02:23:11</v>
+        <v>2023-10-08 10:38:13</v>
       </c>
       <c r="B187">
-        <v>21.49</v>
+        <v>21.9</v>
       </c>
       <c r="C187">
-        <v>27.89</v>
+        <v>28.53</v>
       </c>
       <c r="D187">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E187">
         <v>0.04</v>
@@ -5640,27 +5640,27 @@
         <v>0.03</v>
       </c>
       <c r="G187">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H187">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="I187">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-05 05:59:05</v>
+        <v>2023-10-08 14:19:40</v>
       </c>
       <c r="B188">
-        <v>21.95</v>
+        <v>21.8</v>
       </c>
       <c r="C188">
-        <v>27.89</v>
+        <v>28.53</v>
       </c>
       <c r="D188">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E188">
         <v>0.04</v>
@@ -5669,27 +5669,27 @@
         <v>0.03</v>
       </c>
       <c r="G188">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H188">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="I188">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-05 09:37:16</v>
+        <v>2023-10-08 17:58:54</v>
       </c>
       <c r="B189">
-        <v>21.96</v>
+        <v>22</v>
       </c>
       <c r="C189">
-        <v>27.89</v>
+        <v>28.53</v>
       </c>
       <c r="D189">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E189">
         <v>0.04</v>
@@ -5698,27 +5698,27 @@
         <v>0.03</v>
       </c>
       <c r="G189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H189">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="I189">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-05 13:16:09</v>
+        <v>2023-10-08 21:38:21</v>
       </c>
       <c r="B190">
         <v>22</v>
       </c>
       <c r="C190">
-        <v>27.89</v>
+        <v>28.53</v>
       </c>
       <c r="D190">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E190">
         <v>0.04</v>
@@ -5727,27 +5727,27 @@
         <v>0.03</v>
       </c>
       <c r="G190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H190">
-        <v>19.5</v>
+        <v>19.89</v>
       </c>
       <c r="I190">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-05 16:58:08</v>
+        <v>2023-10-09 01:17:11</v>
       </c>
       <c r="B191">
-        <v>22</v>
+        <v>21.98</v>
       </c>
       <c r="C191">
-        <v>27.89</v>
+        <v>28.53</v>
       </c>
       <c r="D191">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E191">
         <v>0.04</v>
@@ -5756,27 +5756,27 @@
         <v>0.03</v>
       </c>
       <c r="G191">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H191">
-        <v>19.5</v>
+        <v>19.89</v>
       </c>
       <c r="I191">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-05 20:36:10</v>
+        <v>2023-10-09 04:55:43</v>
       </c>
       <c r="B192">
-        <v>21.9</v>
+        <v>21.88</v>
       </c>
       <c r="C192">
-        <v>27.89</v>
+        <v>29.71</v>
       </c>
       <c r="D192">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E192">
         <v>0.04</v>
@@ -5785,10 +5785,10 @@
         <v>0.03</v>
       </c>
       <c r="G192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H192">
-        <v>19.39</v>
+        <v>19.89</v>
       </c>
       <c r="I192">
         <v>8</v>
@@ -5796,16 +5796,16 @@
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-06 00:17:41</v>
+        <v>2023-10-09 08:32:05</v>
       </c>
       <c r="B193">
-        <v>21.89</v>
+        <v>21.88</v>
       </c>
       <c r="C193">
-        <v>27.89</v>
+        <v>29.71</v>
       </c>
       <c r="D193">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E193">
         <v>0.04</v>
@@ -5817,24 +5817,24 @@
         <v>4</v>
       </c>
       <c r="H193">
-        <v>18.89</v>
+        <v>19.89</v>
       </c>
       <c r="I193">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-06 03:56:51</v>
+        <v>2023-10-09 12:09:10</v>
       </c>
       <c r="B194">
-        <v>21.9</v>
+        <v>21.78</v>
       </c>
       <c r="C194">
-        <v>28.14</v>
+        <v>29.71</v>
       </c>
       <c r="D194">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E194">
         <v>0.04</v>
@@ -5843,27 +5843,27 @@
         <v>0.03</v>
       </c>
       <c r="G194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H194">
-        <v>18.89</v>
+        <v>19.89</v>
       </c>
       <c r="I194">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-06 07:36:38</v>
+        <v>2023-10-09 15:48:34</v>
       </c>
       <c r="B195">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="C195">
-        <v>28.14</v>
+        <v>29.71</v>
       </c>
       <c r="D195">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E195">
         <v>0.04</v>
@@ -5872,27 +5872,27 @@
         <v>0.03</v>
       </c>
       <c r="G195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H195">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I195">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-06 11:15:42</v>
+        <v>2023-10-09 19:28:38</v>
       </c>
       <c r="B196">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="C196">
-        <v>28.14</v>
+        <v>29.71</v>
       </c>
       <c r="D196">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E196">
         <v>0.04</v>
@@ -5901,10 +5901,10 @@
         <v>0.03</v>
       </c>
       <c r="G196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H196">
-        <v>19.2</v>
+        <v>19.89</v>
       </c>
       <c r="I196">
         <v>8</v>
@@ -5912,16 +5912,16 @@
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-06 14:53:29</v>
+        <v>2023-10-09 23:09:09</v>
       </c>
       <c r="B197">
-        <v>21.9</v>
+        <v>20.89</v>
       </c>
       <c r="C197">
-        <v>28.14</v>
+        <v>29.71</v>
       </c>
       <c r="D197">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E197">
         <v>0.04</v>
@@ -5930,10 +5930,10 @@
         <v>0.03</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H197">
-        <v>19.2</v>
+        <v>19.89</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -5941,16 +5941,16 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-06 18:29:43</v>
+        <v>2023-10-10 02:49:15</v>
       </c>
       <c r="B198">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="C198">
-        <v>28.14</v>
+        <v>30.68</v>
       </c>
       <c r="D198">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E198">
         <v>0.04</v>
@@ -5959,10 +5959,10 @@
         <v>0.03</v>
       </c>
       <c r="G198">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H198">
-        <v>19.3</v>
+        <v>19.89</v>
       </c>
       <c r="I198">
         <v>8</v>
@@ -5970,16 +5970,16 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-06 22:08:21</v>
+        <v>2023-10-10 06:25:14</v>
       </c>
       <c r="B199">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="C199">
-        <v>28.14</v>
+        <v>30.68</v>
       </c>
       <c r="D199">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E199">
         <v>0.04</v>
@@ -5988,27 +5988,27 @@
         <v>0.03</v>
       </c>
       <c r="G199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H199">
-        <v>19.5</v>
+        <v>19.89</v>
       </c>
       <c r="I199">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-07 01:47:14</v>
+        <v>2023-10-10 10:01:38</v>
       </c>
       <c r="B200">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="C200">
-        <v>28.14</v>
+        <v>30.68</v>
       </c>
       <c r="D200">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E200">
         <v>0.04</v>
@@ -6017,27 +6017,27 @@
         <v>0.03</v>
       </c>
       <c r="G200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H200">
-        <v>19.5</v>
+        <v>19.89</v>
       </c>
       <c r="I200">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-07 05:28:37</v>
+        <v>2023-10-10 13:39:28</v>
       </c>
       <c r="B201">
-        <v>21.9</v>
+        <v>21.1</v>
       </c>
       <c r="C201">
-        <v>31.98</v>
+        <v>30.68</v>
       </c>
       <c r="D201">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E201">
         <v>0.04</v>
@@ -6046,27 +6046,27 @@
         <v>0.03</v>
       </c>
       <c r="G201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H201">
-        <v>19.5</v>
+        <v>19.89</v>
       </c>
       <c r="I201">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-07 09:09:29</v>
+        <v>2023-10-10 17:18:10</v>
       </c>
       <c r="B202">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
       <c r="C202">
-        <v>31.98</v>
+        <v>30.68</v>
       </c>
       <c r="D202">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E202">
         <v>0.04</v>
@@ -6075,27 +6075,27 @@
         <v>0.03</v>
       </c>
       <c r="G202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H202">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="I202">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-07 12:48:35</v>
+        <v>2023-10-10 20:59:35</v>
       </c>
       <c r="B203">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="C203">
-        <v>31.98</v>
+        <v>30.68</v>
       </c>
       <c r="D203">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E203">
         <v>0.04</v>
@@ -6104,27 +6104,27 @@
         <v>0.03</v>
       </c>
       <c r="G203">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H203">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="I203">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-07 16:23:57</v>
+        <v>2023-10-11 00:38:45</v>
       </c>
       <c r="B204">
-        <v>21.7</v>
+        <v>21.77</v>
       </c>
       <c r="C204">
-        <v>31.98</v>
+        <v>30.68</v>
       </c>
       <c r="D204">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E204">
         <v>0.04</v>
@@ -6133,27 +6133,27 @@
         <v>0.03</v>
       </c>
       <c r="G204">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H204">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I204">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-07 20:00:13</v>
+        <v>2023-10-11 04:20:05</v>
       </c>
       <c r="B205">
-        <v>21.7</v>
+        <v>21.77</v>
       </c>
       <c r="C205">
-        <v>31.98</v>
+        <v>27.5</v>
       </c>
       <c r="D205">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E205">
         <v>0.04</v>
@@ -6162,27 +6162,27 @@
         <v>0.03</v>
       </c>
       <c r="G205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H205">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I205">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-07 23:38:21</v>
+        <v>2023-10-11 07:59:45</v>
       </c>
       <c r="B206">
-        <v>21.7</v>
+        <v>21.77</v>
       </c>
       <c r="C206">
-        <v>31.98</v>
+        <v>27.5</v>
       </c>
       <c r="D206">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E206">
         <v>0.04</v>
@@ -6191,27 +6191,27 @@
         <v>0.03</v>
       </c>
       <c r="G206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H206">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I206">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-08 03:18:51</v>
+        <v>2023-10-11 11:39:50</v>
       </c>
       <c r="B207">
-        <v>21.9</v>
+        <v>21.77</v>
       </c>
       <c r="C207">
-        <v>28.53</v>
+        <v>27.5</v>
       </c>
       <c r="D207">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E207">
         <v>0.04</v>
@@ -6223,24 +6223,24 @@
         <v>3</v>
       </c>
       <c r="H207">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I207">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-08 07:00:16</v>
+        <v>2023-10-11 15:19:04</v>
       </c>
       <c r="B208">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="C208">
-        <v>28.53</v>
+        <v>27.5</v>
       </c>
       <c r="D208">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E208">
         <v>0.04</v>
@@ -6252,24 +6252,24 @@
         <v>3</v>
       </c>
       <c r="H208">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="I208">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-08 10:38:13</v>
+        <v>2023-10-11 18:57:42</v>
       </c>
       <c r="B209">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="C209">
-        <v>28.53</v>
+        <v>27.5</v>
       </c>
       <c r="D209">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E209">
         <v>0.04</v>
@@ -6281,24 +6281,24 @@
         <v>3</v>
       </c>
       <c r="H209">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="I209">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-08 14:19:40</v>
+        <v>2023-10-11 22:34:03</v>
       </c>
       <c r="B210">
-        <v>21.8</v>
+        <v>21.1</v>
       </c>
       <c r="C210">
-        <v>28.53</v>
+        <v>27.5</v>
       </c>
       <c r="D210">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E210">
         <v>0.04</v>
@@ -6310,24 +6310,24 @@
         <v>3</v>
       </c>
       <c r="H210">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="I210">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-08 17:58:54</v>
+        <v>2023-10-11 22:39:15</v>
       </c>
       <c r="B211">
-        <v>22</v>
+        <v>21.1</v>
       </c>
       <c r="C211">
-        <v>28.53</v>
+        <v>27.5</v>
       </c>
       <c r="D211">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E211">
         <v>0.04</v>
@@ -6339,24 +6339,24 @@
         <v>3</v>
       </c>
       <c r="H211">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="I211">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-08 21:38:21</v>
+        <v>2023-10-12 02:19:37</v>
       </c>
       <c r="B212">
-        <v>22</v>
+        <v>21.59</v>
       </c>
       <c r="C212">
-        <v>28.53</v>
+        <v>30.29</v>
       </c>
       <c r="D212">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E212">
         <v>0.04</v>
@@ -6371,21 +6371,21 @@
         <v>19.89</v>
       </c>
       <c r="I212">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-09 01:17:11</v>
+        <v>2023-10-12 05:59:29</v>
       </c>
       <c r="B213">
-        <v>21.98</v>
+        <v>21.59</v>
       </c>
       <c r="C213">
-        <v>28.53</v>
+        <v>30.29</v>
       </c>
       <c r="D213">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E213">
         <v>0.04</v>
@@ -6400,21 +6400,21 @@
         <v>19.89</v>
       </c>
       <c r="I213">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>2023-10-09 04:55:43</v>
+        <v>2023-10-12 09:38:39</v>
       </c>
       <c r="B214">
-        <v>21.88</v>
+        <v>21.59</v>
       </c>
       <c r="C214">
-        <v>29.71</v>
+        <v>30.29</v>
       </c>
       <c r="D214">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E214">
         <v>0.04</v>
@@ -6423,27 +6423,27 @@
         <v>0.03</v>
       </c>
       <c r="G214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H214">
         <v>19.89</v>
       </c>
       <c r="I214">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2023-10-09 08:32:05</v>
+        <v>2023-10-12 13:13:37</v>
       </c>
       <c r="B215">
-        <v>21.88</v>
+        <v>21.69</v>
       </c>
       <c r="C215">
-        <v>29.71</v>
+        <v>30.29</v>
       </c>
       <c r="D215">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E215">
         <v>0.04</v>
@@ -6458,21 +6458,21 @@
         <v>19.89</v>
       </c>
       <c r="I215">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>2023-10-09 12:09:10</v>
+        <v>2023-10-12 13:20:20</v>
       </c>
       <c r="B216">
-        <v>21.78</v>
+        <v>21.7</v>
       </c>
       <c r="C216">
-        <v>29.71</v>
+        <v>30.29</v>
       </c>
       <c r="D216">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E216">
         <v>0.04</v>
@@ -6481,27 +6481,27 @@
         <v>0.03</v>
       </c>
       <c r="G216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H216">
         <v>19.89</v>
       </c>
       <c r="I216">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>2023-10-09 15:48:34</v>
+        <v>2023-10-12 16:58:38</v>
       </c>
       <c r="B217">
-        <v>21.7</v>
+        <v>21</v>
       </c>
       <c r="C217">
-        <v>29.71</v>
+        <v>30.29</v>
       </c>
       <c r="D217">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E217">
         <v>0.04</v>
@@ -6510,7 +6510,7 @@
         <v>0.03</v>
       </c>
       <c r="G217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H217">
         <v>20</v>
@@ -6521,16 +6521,16 @@
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>2023-10-09 19:28:38</v>
+        <v>2023-10-12 20:29:19</v>
       </c>
       <c r="B218">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="C218">
-        <v>29.71</v>
+        <v>30.29</v>
       </c>
       <c r="D218">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E218">
         <v>0.04</v>
@@ -6539,27 +6539,27 @@
         <v>0.03</v>
       </c>
       <c r="G218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H218">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I218">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>2023-10-09 23:09:09</v>
+        <v>2023-10-13 00:03:40</v>
       </c>
       <c r="B219">
-        <v>20.89</v>
+        <v>21.7</v>
       </c>
       <c r="C219">
-        <v>29.71</v>
+        <v>30.29</v>
       </c>
       <c r="D219">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E219">
         <v>0.04</v>
@@ -6568,27 +6568,27 @@
         <v>0.03</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H219">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I219">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>2023-10-10 02:49:15</v>
+        <v>2023-10-13 00:09:09</v>
       </c>
       <c r="B220">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="C220">
-        <v>30.68</v>
+        <v>30.29</v>
       </c>
       <c r="D220">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E220">
         <v>0.04</v>
@@ -6597,27 +6597,27 @@
         <v>0.03</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H220">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I220">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>2023-10-10 06:25:14</v>
+        <v>2023-10-13 03:44:01</v>
       </c>
       <c r="B221">
-        <v>21.5</v>
+        <v>21.77</v>
       </c>
       <c r="C221">
-        <v>30.68</v>
+        <v>30.16</v>
       </c>
       <c r="D221">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E221">
         <v>0.04</v>
@@ -6626,27 +6626,27 @@
         <v>0.03</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H221">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I221">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>2023-10-10 10:01:38</v>
+        <v>2023-10-13 03:50:30</v>
       </c>
       <c r="B222">
-        <v>21.5</v>
+        <v>21.77</v>
       </c>
       <c r="C222">
-        <v>30.68</v>
+        <v>30.16</v>
       </c>
       <c r="D222">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E222">
         <v>0.04</v>
@@ -6655,27 +6655,27 @@
         <v>0.03</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H222">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I222">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>2023-10-10 13:39:28</v>
+        <v>2023-10-13 07:28:50</v>
       </c>
       <c r="B223">
-        <v>21.1</v>
+        <v>21.77</v>
       </c>
       <c r="C223">
-        <v>30.68</v>
+        <v>30.16</v>
       </c>
       <c r="D223">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E223">
         <v>0.04</v>
@@ -6684,27 +6684,27 @@
         <v>0.03</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H223">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I223">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>2023-10-10 17:18:10</v>
+        <v>2023-10-13 11:04:11</v>
       </c>
       <c r="B224">
-        <v>21.1</v>
+        <v>21.88</v>
       </c>
       <c r="C224">
-        <v>30.68</v>
+        <v>30.16</v>
       </c>
       <c r="D224">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E224">
         <v>0.04</v>
@@ -6713,10 +6713,10 @@
         <v>0.03</v>
       </c>
       <c r="G224">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H224">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I224">
         <v>10</v>
@@ -6724,16 +6724,16 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>2023-10-10 20:59:35</v>
+        <v>2023-10-13 14:43:23</v>
       </c>
       <c r="B225">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="C225">
-        <v>30.68</v>
+        <v>30.16</v>
       </c>
       <c r="D225">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E225">
         <v>0.04</v>
@@ -6742,27 +6742,27 @@
         <v>0.03</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H225">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="I225">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>2023-10-11 00:38:45</v>
+        <v>2023-10-13 18:22:37</v>
       </c>
       <c r="B226">
-        <v>21.77</v>
+        <v>21.78</v>
       </c>
       <c r="C226">
-        <v>30.68</v>
+        <v>30.16</v>
       </c>
       <c r="D226">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E226">
         <v>0.04</v>
@@ -6771,27 +6771,27 @@
         <v>0.03</v>
       </c>
       <c r="G226">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H226">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I226">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>2023-10-11 04:20:05</v>
+        <v>2023-10-13 22:00:47</v>
       </c>
       <c r="B227">
-        <v>21.77</v>
+        <v>21.78</v>
       </c>
       <c r="C227">
-        <v>27.5</v>
+        <v>30.16</v>
       </c>
       <c r="D227">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E227">
         <v>0.04</v>
@@ -6800,27 +6800,27 @@
         <v>0.03</v>
       </c>
       <c r="G227">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H227">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I227">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>2023-10-11 07:59:45</v>
+        <v>2023-10-14 01:42:16</v>
       </c>
       <c r="B228">
         <v>21.77</v>
       </c>
       <c r="C228">
-        <v>27.5</v>
+        <v>30.16</v>
       </c>
       <c r="D228">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E228">
         <v>0.04</v>
@@ -6829,27 +6829,27 @@
         <v>0.03</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H228">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I228">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>2023-10-11 11:39:50</v>
+        <v>2023-10-14 05:21:09</v>
       </c>
       <c r="B229">
         <v>21.77</v>
       </c>
       <c r="C229">
-        <v>27.5</v>
+        <v>28.01</v>
       </c>
       <c r="D229">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E229">
         <v>0.04</v>
@@ -6858,27 +6858,27 @@
         <v>0.03</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H229">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I229">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>2023-10-11 15:19:04</v>
+        <v>2023-10-14 08:59:51</v>
       </c>
       <c r="B230">
-        <v>21.7</v>
+        <v>21.77</v>
       </c>
       <c r="C230">
-        <v>27.5</v>
+        <v>28.01</v>
       </c>
       <c r="D230">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E230">
         <v>0.04</v>
@@ -6887,27 +6887,27 @@
         <v>0.03</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H230">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I230">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>2023-10-11 18:57:42</v>
+        <v>2023-10-14 12:35:41</v>
       </c>
       <c r="B231">
-        <v>21.7</v>
+        <v>21.67</v>
       </c>
       <c r="C231">
-        <v>27.5</v>
+        <v>28.01</v>
       </c>
       <c r="D231">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E231">
         <v>0.04</v>
@@ -6916,27 +6916,27 @@
         <v>0.03</v>
       </c>
       <c r="G231">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H231">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I231">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>2023-10-11 22:34:03</v>
+        <v>2023-10-14 12:40:42</v>
       </c>
       <c r="B232">
-        <v>21.1</v>
+        <v>21.67</v>
       </c>
       <c r="C232">
-        <v>27.5</v>
+        <v>28.01</v>
       </c>
       <c r="D232">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E232">
         <v>0.04</v>
@@ -6945,27 +6945,27 @@
         <v>0.03</v>
       </c>
       <c r="G232">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H232">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I232">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>2023-10-11 22:39:15</v>
+        <v>2023-10-14 16:19:50</v>
       </c>
       <c r="B233">
-        <v>21.1</v>
+        <v>21.78</v>
       </c>
       <c r="C233">
-        <v>27.5</v>
+        <v>28.01</v>
       </c>
       <c r="D233">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E233">
         <v>0.04</v>
@@ -6974,7 +6974,7 @@
         <v>0.03</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H233">
         <v>20</v>
@@ -6985,16 +6985,16 @@
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>2023-10-12 02:19:37</v>
+        <v>2023-10-14 19:53:06</v>
       </c>
       <c r="B234">
-        <v>21.59</v>
+        <v>21.88</v>
       </c>
       <c r="C234">
-        <v>30.29</v>
+        <v>28.01</v>
       </c>
       <c r="D234">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E234">
         <v>0.04</v>
@@ -7003,27 +7003,27 @@
         <v>0.03</v>
       </c>
       <c r="G234">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H234">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I234">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>2023-10-12 05:59:29</v>
+        <v>2023-10-14 23:33:15</v>
       </c>
       <c r="B235">
-        <v>21.59</v>
+        <v>22.1</v>
       </c>
       <c r="C235">
-        <v>30.29</v>
+        <v>28.01</v>
       </c>
       <c r="D235">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E235">
         <v>0.04</v>
@@ -7032,27 +7032,27 @@
         <v>0.03</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H235">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I235">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>2023-10-12 09:38:39</v>
+        <v>2023-10-15 03:13:35</v>
       </c>
       <c r="B236">
-        <v>21.59</v>
+        <v>22.1</v>
       </c>
       <c r="C236">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D236">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E236">
         <v>0.04</v>
@@ -7061,27 +7061,27 @@
         <v>0.03</v>
       </c>
       <c r="G236">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H236">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I236">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>2023-10-12 13:13:37</v>
+        <v>2023-10-15 06:52:53</v>
       </c>
       <c r="B237">
-        <v>21.69</v>
+        <v>22</v>
       </c>
       <c r="C237">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D237">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E237">
         <v>0.04</v>
@@ -7090,27 +7090,27 @@
         <v>0.03</v>
       </c>
       <c r="G237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H237">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I237">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>2023-10-12 13:20:20</v>
+        <v>2023-10-15 10:30:27</v>
       </c>
       <c r="B238">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="C238">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D238">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E238">
         <v>0.04</v>
@@ -7119,27 +7119,27 @@
         <v>0.03</v>
       </c>
       <c r="G238">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H238">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I238">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>2023-10-12 16:58:38</v>
+        <v>2023-10-15 14:05:28</v>
       </c>
       <c r="B239">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C239">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D239">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E239">
         <v>0.04</v>
@@ -7148,27 +7148,27 @@
         <v>0.03</v>
       </c>
       <c r="G239">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H239">
         <v>20</v>
       </c>
       <c r="I239">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>2023-10-12 20:29:19</v>
+        <v>2023-10-15 14:11:26</v>
       </c>
       <c r="B240">
-        <v>21.7</v>
+        <v>23</v>
       </c>
       <c r="C240">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D240">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E240">
         <v>0.04</v>
@@ -7177,27 +7177,27 @@
         <v>0.03</v>
       </c>
       <c r="G240">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H240">
         <v>20</v>
       </c>
       <c r="I240">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>2023-10-13 00:03:40</v>
+        <v>2023-10-15 17:51:44</v>
       </c>
       <c r="B241">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
       <c r="C241">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D241">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E241">
         <v>0.04</v>
@@ -7206,123 +7206,123 @@
         <v>0.03</v>
       </c>
       <c r="G241">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H241">
         <v>20</v>
       </c>
       <c r="I241">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>2023-10-13 00:09:09</v>
+        <v>2023-10-15 21:30:25</v>
       </c>
       <c r="B242">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="C242">
-        <v>30.29</v>
+        <v>28.53</v>
       </c>
       <c r="D242">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E242">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F242">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H242">
         <v>20</v>
       </c>
       <c r="I242">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>2023-10-13 03:44:01</v>
+        <v>2023-10-16 01:04:46</v>
       </c>
       <c r="B243">
-        <v>21.77</v>
+        <v>21.89</v>
       </c>
       <c r="C243">
-        <v>30.16</v>
+        <v>28.53</v>
       </c>
       <c r="D243">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E243">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F243">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G243">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H243">
         <v>20</v>
       </c>
       <c r="I243">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>2023-10-13 03:50:30</v>
+        <v>2023-10-16 04:43:14</v>
       </c>
       <c r="B244">
-        <v>21.77</v>
+        <v>21.89</v>
       </c>
       <c r="C244">
-        <v>30.16</v>
+        <v>30.61</v>
       </c>
       <c r="D244">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E244">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F244">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G244">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H244">
         <v>20</v>
       </c>
       <c r="I244">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>2023-10-13 07:28:50</v>
+        <v>2023-10-16 08:23:18</v>
       </c>
       <c r="B245">
-        <v>21.77</v>
+        <v>21.89</v>
       </c>
       <c r="C245">
-        <v>30.16</v>
+        <v>30.61</v>
       </c>
       <c r="D245">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E245">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F245">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G245">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H245">
         <v>20</v>
@@ -7333,228 +7333,228 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>2023-10-13 11:04:11</v>
+        <v>2023-10-16 12:03:36</v>
       </c>
       <c r="B246">
-        <v>21.88</v>
+        <v>21.89</v>
       </c>
       <c r="C246">
-        <v>30.16</v>
+        <v>30.61</v>
       </c>
       <c r="D246">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E246">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F246">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G246">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H246">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I246">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>2023-10-13 14:43:23</v>
+        <v>2023-10-16 15:44:32</v>
       </c>
       <c r="B247">
-        <v>21.7</v>
+        <v>21.69</v>
       </c>
       <c r="C247">
-        <v>30.16</v>
+        <v>30.61</v>
       </c>
       <c r="D247">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E247">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F247">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G247">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H247">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="I247">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>2023-10-13 18:22:37</v>
+        <v>2023-10-16 19:22:47</v>
       </c>
       <c r="B248">
-        <v>21.78</v>
+        <v>21.66</v>
       </c>
       <c r="C248">
-        <v>30.16</v>
+        <v>30.61</v>
       </c>
       <c r="D248">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E248">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F248">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G248">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H248">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I248">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>2023-10-13 22:00:47</v>
+        <v>2023-10-16 23:00:59</v>
       </c>
       <c r="B249">
-        <v>21.78</v>
+        <v>21</v>
       </c>
       <c r="C249">
-        <v>30.16</v>
+        <v>30.61</v>
       </c>
       <c r="D249">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E249">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F249">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G249">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H249">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I249">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>2023-10-14 01:42:16</v>
+        <v>2023-10-17 02:36:19</v>
       </c>
       <c r="B250">
-        <v>21.77</v>
+        <v>21.66</v>
       </c>
       <c r="C250">
-        <v>30.16</v>
+        <v>28.41</v>
       </c>
       <c r="D250">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E250">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F250">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H250">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="I250">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>2023-10-14 05:21:09</v>
+        <v>2023-10-17 06:14:48</v>
       </c>
       <c r="B251">
-        <v>21.77</v>
+        <v>21.66</v>
       </c>
       <c r="C251">
-        <v>28.01</v>
+        <v>28.41</v>
       </c>
       <c r="D251">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E251">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F251">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G251">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H251">
         <v>19.89</v>
       </c>
       <c r="I251">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>2023-10-14 08:59:51</v>
+        <v>2023-10-17 09:53:59</v>
       </c>
       <c r="B252">
-        <v>21.77</v>
+        <v>21.5</v>
       </c>
       <c r="C252">
-        <v>28.01</v>
+        <v>28.41</v>
       </c>
       <c r="D252">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E252">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F252">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G252">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H252">
         <v>19.89</v>
       </c>
       <c r="I252">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>2023-10-14 12:35:41</v>
+        <v>2023-10-17 13:35:38</v>
       </c>
       <c r="B253">
-        <v>21.67</v>
+        <v>21.56</v>
       </c>
       <c r="C253">
-        <v>28.01</v>
+        <v>28.41</v>
       </c>
       <c r="D253">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E253">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F253">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G253">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H253">
         <v>19.89</v>
@@ -7565,25 +7565,25 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>2023-10-14 12:40:42</v>
+        <v>2023-10-17 17:15:42</v>
       </c>
       <c r="B254">
-        <v>21.67</v>
+        <v>21.46</v>
       </c>
       <c r="C254">
-        <v>28.01</v>
+        <v>28.41</v>
       </c>
       <c r="D254">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E254">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F254">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G254">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H254">
         <v>19.89</v>
@@ -7594,277 +7594,277 @@
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>2023-10-14 16:19:50</v>
+        <v>2023-10-17 20:54:34</v>
       </c>
       <c r="B255">
-        <v>21.78</v>
+        <v>21.46</v>
       </c>
       <c r="C255">
-        <v>28.01</v>
+        <v>28.41</v>
       </c>
       <c r="D255">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E255">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F255">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G255">
+        <v>10</v>
+      </c>
+      <c r="H255">
+        <v>19.7</v>
+      </c>
+      <c r="I255">
         <v>8</v>
-      </c>
-      <c r="H255">
-        <v>20</v>
-      </c>
-      <c r="I255">
-        <v>11</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>2023-10-14 19:53:06</v>
+        <v>2023-10-18 00:33:39</v>
       </c>
       <c r="B256">
-        <v>21.88</v>
+        <v>21.45</v>
       </c>
       <c r="C256">
-        <v>28.01</v>
+        <v>28.41</v>
       </c>
       <c r="D256">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E256">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F256">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G256">
+        <v>10</v>
+      </c>
+      <c r="H256">
+        <v>19.8</v>
+      </c>
+      <c r="I256">
         <v>8</v>
-      </c>
-      <c r="H256">
-        <v>20</v>
-      </c>
-      <c r="I256">
-        <v>12</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>2023-10-14 23:33:15</v>
+        <v>2023-10-18 04:13:48</v>
       </c>
       <c r="B257">
-        <v>22.1</v>
+        <v>21.46</v>
       </c>
       <c r="C257">
-        <v>28.01</v>
+        <v>29.97</v>
       </c>
       <c r="D257">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E257">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F257">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G257">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H257">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="I257">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>2023-10-15 03:13:35</v>
+        <v>2023-10-18 07:54:29</v>
       </c>
       <c r="B258">
-        <v>22.1</v>
+        <v>21.36</v>
       </c>
       <c r="C258">
-        <v>28.53</v>
+        <v>29.97</v>
       </c>
       <c r="D258">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E258">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F258">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G258">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H258">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="I258">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>2023-10-15 06:52:53</v>
+        <v>2023-10-18 11:32:53</v>
       </c>
       <c r="B259">
-        <v>22</v>
+        <v>21.46</v>
       </c>
       <c r="C259">
-        <v>28.53</v>
+        <v>29.97</v>
       </c>
       <c r="D259">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E259">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F259">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G259">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H259">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="I259">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>2023-10-15 10:30:27</v>
+        <v>2023-10-18 15:10:20</v>
       </c>
       <c r="B260">
-        <v>22</v>
+        <v>21.46</v>
       </c>
       <c r="C260">
-        <v>28.53</v>
+        <v>29.97</v>
       </c>
       <c r="D260">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E260">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F260">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G260">
+        <v>10</v>
+      </c>
+      <c r="H260">
+        <v>19.8</v>
+      </c>
+      <c r="I260">
         <v>7</v>
-      </c>
-      <c r="H260">
-        <v>20</v>
-      </c>
-      <c r="I260">
-        <v>11</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>2023-10-15 14:05:28</v>
+        <v>2023-10-18 18:47:49</v>
       </c>
       <c r="B261">
-        <v>23</v>
+        <v>20.38</v>
       </c>
       <c r="C261">
-        <v>28.53</v>
+        <v>29.97</v>
       </c>
       <c r="D261">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E261">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F261">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G261">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H261">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="I261">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>2023-10-15 14:11:26</v>
+        <v>2023-10-18 22:28:04</v>
       </c>
       <c r="B262">
-        <v>23</v>
+        <v>20.48</v>
       </c>
       <c r="C262">
-        <v>28.53</v>
+        <v>29.97</v>
       </c>
       <c r="D262">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E262">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F262">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G262">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H262">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="I262">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>2023-10-15 17:51:44</v>
+        <v>2023-10-19 02:08:50</v>
       </c>
       <c r="B263">
-        <v>22.5</v>
+        <v>20.38</v>
       </c>
       <c r="C263">
-        <v>28.53</v>
+        <v>26.98</v>
       </c>
       <c r="D263">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E263">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F263">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G263">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H263">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I263">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>2023-10-15 21:30:25</v>
+        <v>2023-10-19 05:48:42</v>
       </c>
       <c r="B264">
-        <v>22</v>
+        <v>20.38</v>
       </c>
       <c r="C264">
-        <v>28.53</v>
+        <v>26.98</v>
       </c>
       <c r="D264">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E264">
         <v>0.03</v>
@@ -7873,13 +7873,71 @@
         <v>0.02</v>
       </c>
       <c r="G264">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H264">
-        <v>20</v>
+        <v>19.89</v>
       </c>
       <c r="I264">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>2023-10-19 09:27:58</v>
+      </c>
+      <c r="B265">
+        <v>20.48</v>
+      </c>
+      <c r="C265">
+        <v>26.98</v>
+      </c>
+      <c r="D265">
+        <v>63</v>
+      </c>
+      <c r="E265">
+        <v>0.03</v>
+      </c>
+      <c r="F265">
+        <v>0.02</v>
+      </c>
+      <c r="G265">
+        <v>10</v>
+      </c>
+      <c r="H265">
+        <v>19.89</v>
+      </c>
+      <c r="I265">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>2023-10-19 09:32:59</v>
+      </c>
+      <c r="B266">
+        <v>20.48</v>
+      </c>
+      <c r="C266">
+        <v>26.98</v>
+      </c>
+      <c r="D266">
+        <v>63</v>
+      </c>
+      <c r="E266">
+        <v>0.03</v>
+      </c>
+      <c r="F266">
+        <v>0.02</v>
+      </c>
+      <c r="G266">
+        <v>10</v>
+      </c>
+      <c r="H266">
+        <v>19.89</v>
+      </c>
+      <c r="I266">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7891,7 +7949,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I264"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I266"/>
   </ignoredErrors>
 </worksheet>
 </file>